--- a/ConvertedEqual/Massachusetts_Converted.xlsx
+++ b/ConvertedEqual/Massachusetts_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="302">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -886,6 +886,42 @@
   <si>
     <t>9/29/2020</t>
   </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
+  </si>
 </sst>
 </file>
 
@@ -1246,7 +1282,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB221"/>
+  <dimension ref="A1:BB233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1650,11 +1686,20 @@
       <c r="Y3" s="2">
         <v>43921</v>
       </c>
+      <c r="Z3" s="2">
+        <v>43914</v>
+      </c>
       <c r="AA3" s="2">
         <v>43914</v>
       </c>
+      <c r="AB3" s="2">
+        <v>43914</v>
+      </c>
       <c r="AC3" s="2">
         <v>43914</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>43905</v>
       </c>
       <c r="AE3" s="2">
         <v>43914</v>
@@ -1923,13 +1968,13 @@
         <v>0.1666666667</v>
       </c>
       <c r="W7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0.1666666667</v>
       </c>
       <c r="Y7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0.0714285714</v>
@@ -1947,13 +1992,13 @@
         <v>0.0714285714</v>
       </c>
       <c r="AE7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -2016,7 +2061,7 @@
         <v>0.1428571429</v>
       </c>
       <c r="BB7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:54">
@@ -4153,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:54">
@@ -4317,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="BB22">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:54">
@@ -4409,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -4481,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="BB23">
-        <v>0.08241758241538462</v>
+        <v>0.09523809523333333</v>
       </c>
     </row>
     <row r="24" spans="1:54">
@@ -4573,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -4645,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="BB24">
-        <v>0.08241758241538462</v>
+        <v>0.09523809523333333</v>
       </c>
     </row>
     <row r="25" spans="1:54">
@@ -4737,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -4809,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>0.2362637362538462</v>
+        <v>0.2619047618916667</v>
       </c>
     </row>
     <row r="26" spans="1:54">
@@ -4901,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -4973,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>0.2362637362538462</v>
+        <v>0.2619047618916667</v>
       </c>
     </row>
     <row r="27" spans="1:54">
@@ -5065,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27">
         <v>0</v>
@@ -5137,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>0.2362637362538462</v>
+        <v>0.2619047618916667</v>
       </c>
     </row>
     <row r="28" spans="1:54">
@@ -5229,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -5301,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="BB28">
-        <v>0.2362637362538462</v>
+        <v>0.2619047618916667</v>
       </c>
     </row>
     <row r="29" spans="1:54">
@@ -5393,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE29">
         <v>0</v>
@@ -5465,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="BB29">
-        <v>0.2362637362538462</v>
+        <v>0.2619047618916667</v>
       </c>
     </row>
     <row r="30" spans="1:54">
@@ -5557,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -5629,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="BB30">
-        <v>0.2362637362538462</v>
+        <v>0.2619047618916667</v>
       </c>
     </row>
     <row r="31" spans="1:54">
@@ -5721,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31">
         <v>0</v>
@@ -5793,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="BB31">
-        <v>0.2362637362538462</v>
+        <v>0.2619047618916667</v>
       </c>
     </row>
     <row r="32" spans="1:54">
@@ -5873,19 +5918,19 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32">
         <v>1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32">
         <v>1</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE32">
         <v>1</v>
@@ -5957,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="BB32">
-        <v>0.7934065934076927</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="33" spans="1:54">
@@ -6037,19 +6082,19 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33">
         <v>1</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33">
         <v>1</v>
@@ -6121,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="BB33">
-        <v>0.7934065934076927</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="34" spans="1:54">
@@ -6201,19 +6246,19 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34">
         <v>1</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34">
         <v>1</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34">
         <v>1</v>
@@ -6285,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="BB34">
-        <v>0.7934065934076927</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="35" spans="1:54">
@@ -6365,19 +6410,19 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35">
         <v>1</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35">
         <v>1</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35">
         <v>1</v>
@@ -6449,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="BB35">
-        <v>0.7934065934076927</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="36" spans="1:54">
@@ -6529,19 +6574,19 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36">
         <v>1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36">
         <v>1</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36">
         <v>1</v>
@@ -6613,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="BB36">
-        <v>0.7934065934076927</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="37" spans="1:54">
@@ -6693,19 +6738,19 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37">
         <v>1</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37">
         <v>1</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE37">
         <v>1</v>
@@ -6777,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="BB37">
-        <v>0.7934065934076927</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="38" spans="1:54">
@@ -6857,19 +6902,19 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38">
         <v>1</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38">
         <v>1</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE38">
         <v>1</v>
@@ -6941,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="BB38">
-        <v>0.7934065934076927</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="39" spans="1:54">
@@ -7021,19 +7066,19 @@
         <v>1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA39">
         <v>1</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC39">
         <v>1</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE39">
         <v>1</v>
@@ -7105,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="BB39">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="40" spans="1:54">
@@ -7185,19 +7230,19 @@
         <v>1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40">
         <v>1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40">
         <v>1</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE40">
         <v>1</v>
@@ -7269,7 +7314,7 @@
         <v>1</v>
       </c>
       <c r="BB40">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="41" spans="1:54">
@@ -7349,19 +7394,19 @@
         <v>1</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA41">
         <v>1</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41">
         <v>1</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE41">
         <v>1</v>
@@ -7433,7 +7478,7 @@
         <v>1</v>
       </c>
       <c r="BB41">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="42" spans="1:54">
@@ -7513,19 +7558,19 @@
         <v>1</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42">
         <v>1</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42">
         <v>1</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE42">
         <v>1</v>
@@ -7597,7 +7642,7 @@
         <v>1</v>
       </c>
       <c r="BB42">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="43" spans="1:54">
@@ -7677,19 +7722,19 @@
         <v>1</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43">
         <v>1</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43">
         <v>1</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE43">
         <v>1</v>
@@ -7761,7 +7806,7 @@
         <v>1</v>
       </c>
       <c r="BB43">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="44" spans="1:54">
@@ -7841,19 +7886,19 @@
         <v>1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA44">
         <v>1</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44">
         <v>1</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE44">
         <v>1</v>
@@ -7925,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="BB44">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="45" spans="1:54">
@@ -8005,19 +8050,19 @@
         <v>1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45">
         <v>1</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45">
         <v>1</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE45">
         <v>1</v>
@@ -8089,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="BB45">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="46" spans="1:54">
@@ -8169,19 +8214,19 @@
         <v>1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA46">
         <v>1</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46">
         <v>1</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE46">
         <v>1</v>
@@ -8253,7 +8298,7 @@
         <v>1</v>
       </c>
       <c r="BB46">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="47" spans="1:54">
@@ -8333,19 +8378,19 @@
         <v>1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA47">
         <v>1</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47">
         <v>1</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE47">
         <v>1</v>
@@ -8417,7 +8462,7 @@
         <v>1</v>
       </c>
       <c r="BB47">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="48" spans="1:54">
@@ -8497,19 +8542,19 @@
         <v>1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA48">
         <v>1</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48">
         <v>1</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE48">
         <v>1</v>
@@ -8581,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="BB48">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="49" spans="1:54">
@@ -8661,19 +8706,19 @@
         <v>1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA49">
         <v>1</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49">
         <v>1</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE49">
         <v>1</v>
@@ -8745,7 +8790,7 @@
         <v>1</v>
       </c>
       <c r="BB49">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="50" spans="1:54">
@@ -8825,19 +8870,19 @@
         <v>1</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA50">
         <v>1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50">
         <v>1</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE50">
         <v>1</v>
@@ -8909,7 +8954,7 @@
         <v>1</v>
       </c>
       <c r="BB50">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="51" spans="1:54">
@@ -8989,19 +9034,19 @@
         <v>1</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA51">
         <v>1</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51">
         <v>1</v>
       </c>
       <c r="AD51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE51">
         <v>1</v>
@@ -9073,7 +9118,7 @@
         <v>1</v>
       </c>
       <c r="BB51">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="52" spans="1:54">
@@ -9153,19 +9198,19 @@
         <v>1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA52">
         <v>1</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52">
         <v>1</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE52">
         <v>1</v>
@@ -9237,7 +9282,7 @@
         <v>1</v>
       </c>
       <c r="BB52">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="53" spans="1:54">
@@ -9317,19 +9362,19 @@
         <v>1</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA53">
         <v>1</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC53">
         <v>1</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE53">
         <v>1</v>
@@ -9401,7 +9446,7 @@
         <v>1</v>
       </c>
       <c r="BB53">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="54" spans="1:54">
@@ -9481,19 +9526,19 @@
         <v>1</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA54">
         <v>1</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54">
         <v>1</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE54">
         <v>1</v>
@@ -9565,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="BB54">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="55" spans="1:54">
@@ -9645,19 +9690,19 @@
         <v>1</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA55">
         <v>1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55">
         <v>1</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE55">
         <v>1</v>
@@ -9729,7 +9774,7 @@
         <v>1</v>
       </c>
       <c r="BB55">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="56" spans="1:54">
@@ -9809,19 +9854,19 @@
         <v>1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA56">
         <v>1</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56">
         <v>1</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE56">
         <v>1</v>
@@ -9893,7 +9938,7 @@
         <v>1</v>
       </c>
       <c r="BB56">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="57" spans="1:54">
@@ -9973,19 +10018,19 @@
         <v>1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA57">
         <v>1</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC57">
         <v>1</v>
       </c>
       <c r="AD57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE57">
         <v>1</v>
@@ -10057,7 +10102,7 @@
         <v>1</v>
       </c>
       <c r="BB57">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="58" spans="1:54">
@@ -10137,19 +10182,19 @@
         <v>1</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA58">
         <v>1</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58">
         <v>1</v>
       </c>
       <c r="AD58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE58">
         <v>1</v>
@@ -10221,7 +10266,7 @@
         <v>1</v>
       </c>
       <c r="BB58">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="59" spans="1:54">
@@ -10301,19 +10346,19 @@
         <v>1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA59">
         <v>1</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC59">
         <v>1</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE59">
         <v>1</v>
@@ -10385,7 +10430,7 @@
         <v>1</v>
       </c>
       <c r="BB59">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="60" spans="1:54">
@@ -10465,19 +10510,19 @@
         <v>1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA60">
         <v>1</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC60">
         <v>1</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE60">
         <v>1</v>
@@ -10549,7 +10594,7 @@
         <v>1</v>
       </c>
       <c r="BB60">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="61" spans="1:54">
@@ -10629,19 +10674,19 @@
         <v>1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA61">
         <v>1</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC61">
         <v>1</v>
       </c>
       <c r="AD61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE61">
         <v>1</v>
@@ -10713,7 +10758,7 @@
         <v>1</v>
       </c>
       <c r="BB61">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="62" spans="1:54">
@@ -10793,19 +10838,19 @@
         <v>1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA62">
         <v>1</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62">
         <v>1</v>
       </c>
       <c r="AD62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE62">
         <v>1</v>
@@ -10877,7 +10922,7 @@
         <v>1</v>
       </c>
       <c r="BB62">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="63" spans="1:54">
@@ -10957,19 +11002,19 @@
         <v>1</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA63">
         <v>1</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC63">
         <v>1</v>
       </c>
       <c r="AD63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE63">
         <v>1</v>
@@ -11041,7 +11086,7 @@
         <v>1</v>
       </c>
       <c r="BB63">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="64" spans="1:54">
@@ -11121,19 +11166,19 @@
         <v>1</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA64">
         <v>1</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC64">
         <v>1</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE64">
         <v>1</v>
@@ -11205,7 +11250,7 @@
         <v>1</v>
       </c>
       <c r="BB64">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="65" spans="1:54">
@@ -11285,19 +11330,19 @@
         <v>1</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA65">
         <v>1</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC65">
         <v>1</v>
       </c>
       <c r="AD65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE65">
         <v>1</v>
@@ -11369,7 +11414,7 @@
         <v>1</v>
       </c>
       <c r="BB65">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="66" spans="1:54">
@@ -11449,19 +11494,19 @@
         <v>1</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA66">
         <v>1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC66">
         <v>1</v>
       </c>
       <c r="AD66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE66">
         <v>1</v>
@@ -11533,7 +11578,7 @@
         <v>1</v>
       </c>
       <c r="BB66">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="67" spans="1:54">
@@ -11613,19 +11658,19 @@
         <v>1</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA67">
         <v>1</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC67">
         <v>1</v>
       </c>
       <c r="AD67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE67">
         <v>1</v>
@@ -11697,7 +11742,7 @@
         <v>1</v>
       </c>
       <c r="BB67">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="68" spans="1:54">
@@ -11777,19 +11822,19 @@
         <v>1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA68">
         <v>1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC68">
         <v>1</v>
       </c>
       <c r="AD68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE68">
         <v>1</v>
@@ -11861,7 +11906,7 @@
         <v>1</v>
       </c>
       <c r="BB68">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="69" spans="1:54">
@@ -11941,19 +11986,19 @@
         <v>1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA69">
         <v>1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC69">
         <v>1</v>
       </c>
       <c r="AD69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE69">
         <v>1</v>
@@ -12025,7 +12070,7 @@
         <v>1</v>
       </c>
       <c r="BB69">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="70" spans="1:54">
@@ -12105,19 +12150,19 @@
         <v>1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA70">
         <v>1</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC70">
         <v>1</v>
       </c>
       <c r="AD70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE70">
         <v>1</v>
@@ -12189,7 +12234,7 @@
         <v>1</v>
       </c>
       <c r="BB70">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="71" spans="1:54">
@@ -12269,19 +12314,19 @@
         <v>1</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA71">
         <v>1</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC71">
         <v>1</v>
       </c>
       <c r="AD71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE71">
         <v>1</v>
@@ -12353,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="BB71">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="72" spans="1:54">
@@ -12433,19 +12478,19 @@
         <v>1</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA72">
         <v>1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC72">
         <v>1</v>
       </c>
       <c r="AD72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE72">
         <v>1</v>
@@ -12517,7 +12562,7 @@
         <v>1</v>
       </c>
       <c r="BB72">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="73" spans="1:54">
@@ -12597,19 +12642,19 @@
         <v>1</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA73">
         <v>1</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC73">
         <v>1</v>
       </c>
       <c r="AD73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE73">
         <v>1</v>
@@ -12681,7 +12726,7 @@
         <v>1</v>
       </c>
       <c r="BB73">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="74" spans="1:54">
@@ -12761,19 +12806,19 @@
         <v>1</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA74">
         <v>1</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC74">
         <v>1</v>
       </c>
       <c r="AD74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE74">
         <v>1</v>
@@ -12845,7 +12890,7 @@
         <v>1</v>
       </c>
       <c r="BB74">
-        <v>0.8241758241769237</v>
+        <v>0.8333333333333339</v>
       </c>
     </row>
     <row r="75" spans="1:54">
@@ -12925,19 +12970,19 @@
         <v>1</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA75">
         <v>1</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC75">
         <v>1</v>
       </c>
       <c r="AD75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE75">
         <v>1</v>
@@ -13009,7 +13054,7 @@
         <v>1</v>
       </c>
       <c r="BB75">
-        <v>0.9010989011000008</v>
+        <v>0.9166666666666674</v>
       </c>
     </row>
     <row r="76" spans="1:54">
@@ -13089,19 +13134,19 @@
         <v>1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA76">
         <v>1</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC76">
         <v>1</v>
       </c>
       <c r="AD76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE76">
         <v>1</v>
@@ -13173,7 +13218,7 @@
         <v>1</v>
       </c>
       <c r="BB76">
-        <v>0.9010989011000008</v>
+        <v>0.9166666666666674</v>
       </c>
     </row>
     <row r="77" spans="1:54">
@@ -13253,19 +13298,19 @@
         <v>1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA77">
         <v>1</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC77">
         <v>1</v>
       </c>
       <c r="AD77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE77">
         <v>1</v>
@@ -13337,7 +13382,7 @@
         <v>1</v>
       </c>
       <c r="BB77">
-        <v>0.890109890107693</v>
+        <v>0.9047619047583338</v>
       </c>
     </row>
     <row r="78" spans="1:54">
@@ -13417,19 +13462,19 @@
         <v>1</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA78">
         <v>1</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC78">
         <v>1</v>
       </c>
       <c r="AD78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE78">
         <v>1</v>
@@ -13501,7 +13546,7 @@
         <v>1</v>
       </c>
       <c r="BB78">
-        <v>0.890109890107693</v>
+        <v>0.9047619047583338</v>
       </c>
     </row>
     <row r="79" spans="1:54">
@@ -13581,19 +13626,19 @@
         <v>1</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA79">
         <v>1</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC79">
         <v>1</v>
       </c>
       <c r="AD79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE79">
         <v>1</v>
@@ -13665,7 +13710,7 @@
         <v>1</v>
       </c>
       <c r="BB79">
-        <v>0.890109890107693</v>
+        <v>0.9047619047583338</v>
       </c>
     </row>
     <row r="80" spans="1:54">
@@ -13745,19 +13790,19 @@
         <v>1</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA80">
         <v>1</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC80">
         <v>1</v>
       </c>
       <c r="AD80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE80">
         <v>1</v>
@@ -13829,7 +13874,7 @@
         <v>1</v>
       </c>
       <c r="BB80">
-        <v>0.890109890107693</v>
+        <v>0.9047619047583338</v>
       </c>
     </row>
     <row r="81" spans="1:54">
@@ -13909,19 +13954,19 @@
         <v>1</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA81">
         <v>1</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC81">
         <v>1</v>
       </c>
       <c r="AD81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE81">
         <v>1</v>
@@ -13993,7 +14038,7 @@
         <v>1</v>
       </c>
       <c r="BB81">
-        <v>0.890109890107693</v>
+        <v>0.9047619047583338</v>
       </c>
     </row>
     <row r="82" spans="1:54">
@@ -14073,19 +14118,19 @@
         <v>1</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA82">
         <v>1</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC82">
         <v>1</v>
       </c>
       <c r="AD82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE82">
         <v>1</v>
@@ -14157,7 +14202,7 @@
         <v>1</v>
       </c>
       <c r="BB82">
-        <v>0.890109890107693</v>
+        <v>0.9047619047583338</v>
       </c>
     </row>
     <row r="83" spans="1:54">
@@ -14237,19 +14282,19 @@
         <v>1</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA83">
         <v>1</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC83">
         <v>1</v>
       </c>
       <c r="AD83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE83">
         <v>1</v>
@@ -14321,7 +14366,7 @@
         <v>1</v>
       </c>
       <c r="BB83">
-        <v>0.890109890107693</v>
+        <v>0.9047619047583338</v>
       </c>
     </row>
     <row r="84" spans="1:54">
@@ -14401,19 +14446,19 @@
         <v>1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA84">
         <v>1</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC84">
         <v>1</v>
       </c>
       <c r="AD84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE84">
         <v>1</v>
@@ -14485,7 +14530,7 @@
         <v>1</v>
       </c>
       <c r="BB84">
-        <v>0.890109890107693</v>
+        <v>0.9047619047583338</v>
       </c>
     </row>
     <row r="85" spans="1:54">
@@ -14565,19 +14610,19 @@
         <v>1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA85">
         <v>1</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC85">
         <v>1</v>
       </c>
       <c r="AD85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE85">
         <v>1</v>
@@ -14649,7 +14694,7 @@
         <v>1</v>
       </c>
       <c r="BB85">
-        <v>0.890109890107693</v>
+        <v>0.9047619047583338</v>
       </c>
     </row>
     <row r="86" spans="1:54">
@@ -14729,19 +14774,19 @@
         <v>1</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA86">
         <v>1</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC86">
         <v>1</v>
       </c>
       <c r="AD86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE86">
         <v>1</v>
@@ -14813,7 +14858,7 @@
         <v>1</v>
       </c>
       <c r="BB86">
-        <v>0.890109890107693</v>
+        <v>0.9047619047583338</v>
       </c>
     </row>
     <row r="87" spans="1:54">
@@ -14893,19 +14938,19 @@
         <v>1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA87">
         <v>1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC87">
         <v>1</v>
       </c>
       <c r="AD87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE87">
         <v>1</v>
@@ -14977,7 +15022,7 @@
         <v>1</v>
       </c>
       <c r="BB87">
-        <v>0.890109890107693</v>
+        <v>0.9047619047583338</v>
       </c>
     </row>
     <row r="88" spans="1:54">
@@ -15057,19 +15102,19 @@
         <v>1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA88">
         <v>1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC88">
         <v>1</v>
       </c>
       <c r="AD88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE88">
         <v>0</v>
@@ -15141,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="BB88">
-        <v>0.7824175824153852</v>
+        <v>0.8214285714250004</v>
       </c>
     </row>
     <row r="89" spans="1:54">
@@ -15221,19 +15266,19 @@
         <v>1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA89">
         <v>1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC89">
         <v>1</v>
       </c>
       <c r="AD89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE89">
         <v>0</v>
@@ -15305,7 +15350,7 @@
         <v>1</v>
       </c>
       <c r="BB89">
-        <v>0.7824175824153852</v>
+        <v>0.8214285714250004</v>
       </c>
     </row>
     <row r="90" spans="1:54">
@@ -15385,19 +15430,19 @@
         <v>1</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA90">
         <v>1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC90">
         <v>1</v>
       </c>
       <c r="AD90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE90">
         <v>0</v>
@@ -15469,7 +15514,7 @@
         <v>1</v>
       </c>
       <c r="BB90">
-        <v>0.7824175824153852</v>
+        <v>0.8214285714250004</v>
       </c>
     </row>
     <row r="91" spans="1:54">
@@ -15549,19 +15594,19 @@
         <v>1</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA91">
         <v>1</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC91">
         <v>1</v>
       </c>
       <c r="AD91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE91">
         <v>0</v>
@@ -15633,7 +15678,7 @@
         <v>1</v>
       </c>
       <c r="BB91">
-        <v>0.7824175824153852</v>
+        <v>0.8214285714250004</v>
       </c>
     </row>
     <row r="92" spans="1:54">
@@ -15713,19 +15758,19 @@
         <v>1</v>
       </c>
       <c r="Z92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA92">
         <v>1</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC92">
         <v>1</v>
       </c>
       <c r="AD92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE92">
         <v>0</v>
@@ -15797,7 +15842,7 @@
         <v>1</v>
       </c>
       <c r="BB92">
-        <v>0.7824175824153852</v>
+        <v>0.8214285714250004</v>
       </c>
     </row>
     <row r="93" spans="1:54">
@@ -15877,19 +15922,19 @@
         <v>1</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA93">
         <v>1</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC93">
         <v>1</v>
       </c>
       <c r="AD93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE93">
         <v>0</v>
@@ -15961,7 +16006,7 @@
         <v>1</v>
       </c>
       <c r="BB93">
-        <v>0.7824175824153852</v>
+        <v>0.8214285714250004</v>
       </c>
     </row>
     <row r="94" spans="1:54">
@@ -16041,19 +16086,19 @@
         <v>1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA94">
         <v>1</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC94">
         <v>1</v>
       </c>
       <c r="AD94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE94">
         <v>0</v>
@@ -16125,7 +16170,7 @@
         <v>1</v>
       </c>
       <c r="BB94">
-        <v>0.7824175824153852</v>
+        <v>0.8214285714250004</v>
       </c>
     </row>
     <row r="95" spans="1:54">
@@ -16205,19 +16250,19 @@
         <v>1</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA95">
         <v>1</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC95">
         <v>1</v>
       </c>
       <c r="AD95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE95">
         <v>0</v>
@@ -16289,7 +16334,7 @@
         <v>1</v>
       </c>
       <c r="BB95">
-        <v>0.6315018314846154</v>
+        <v>0.6746031745833333</v>
       </c>
     </row>
     <row r="96" spans="1:54">
@@ -16369,19 +16414,19 @@
         <v>1</v>
       </c>
       <c r="Z96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA96">
         <v>1</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC96">
         <v>1</v>
       </c>
       <c r="AD96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE96">
         <v>0</v>
@@ -16453,7 +16498,7 @@
         <v>1</v>
       </c>
       <c r="BB96">
-        <v>0.6315018314846154</v>
+        <v>0.6746031745833333</v>
       </c>
     </row>
     <row r="97" spans="1:54">
@@ -16533,19 +16578,19 @@
         <v>1</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA97">
         <v>1</v>
       </c>
       <c r="AB97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC97">
         <v>1</v>
       </c>
       <c r="AD97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE97">
         <v>0</v>
@@ -16617,7 +16662,7 @@
         <v>1</v>
       </c>
       <c r="BB97">
-        <v>0.6315018314846154</v>
+        <v>0.6746031745833333</v>
       </c>
     </row>
     <row r="98" spans="1:54">
@@ -16697,19 +16742,19 @@
         <v>1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA98">
         <v>1</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC98">
         <v>1</v>
       </c>
       <c r="AD98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE98">
         <v>0</v>
@@ -16781,7 +16826,7 @@
         <v>1</v>
       </c>
       <c r="BB98">
-        <v>0.6315018314846154</v>
+        <v>0.6746031745833333</v>
       </c>
     </row>
     <row r="99" spans="1:54">
@@ -16861,19 +16906,19 @@
         <v>1</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA99">
         <v>1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC99">
         <v>1</v>
       </c>
       <c r="AD99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE99">
         <v>0</v>
@@ -16945,7 +16990,7 @@
         <v>1</v>
       </c>
       <c r="BB99">
-        <v>0.6315018314846154</v>
+        <v>0.6746031745833333</v>
       </c>
     </row>
     <row r="100" spans="1:54">
@@ -17025,19 +17070,19 @@
         <v>1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA100">
         <v>1</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC100">
         <v>1</v>
       </c>
       <c r="AD100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE100">
         <v>0</v>
@@ -17109,7 +17154,7 @@
         <v>1</v>
       </c>
       <c r="BB100">
-        <v>0.6315018314846154</v>
+        <v>0.6746031745833333</v>
       </c>
     </row>
     <row r="101" spans="1:54">
@@ -17189,19 +17234,19 @@
         <v>1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA101">
         <v>1</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC101">
         <v>1</v>
       </c>
       <c r="AD101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE101">
         <v>0</v>
@@ -17273,7 +17318,7 @@
         <v>1</v>
       </c>
       <c r="BB101">
-        <v>0.6315018314846154</v>
+        <v>0.6746031745833333</v>
       </c>
     </row>
     <row r="102" spans="1:54">
@@ -17353,19 +17398,19 @@
         <v>1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA102">
         <v>1</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC102">
         <v>1</v>
       </c>
       <c r="AD102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE102">
         <v>0</v>
@@ -17437,7 +17482,7 @@
         <v>1</v>
       </c>
       <c r="BB102">
-        <v>0.6315018314846154</v>
+        <v>0.6746031745833333</v>
       </c>
     </row>
     <row r="103" spans="1:54">
@@ -17517,19 +17562,19 @@
         <v>1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA103">
         <v>1</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC103">
         <v>1</v>
       </c>
       <c r="AD103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE103">
         <v>0</v>
@@ -17601,7 +17646,7 @@
         <v>1</v>
       </c>
       <c r="BB103">
-        <v>0.6315018314846154</v>
+        <v>0.6746031745833333</v>
       </c>
     </row>
     <row r="104" spans="1:54">
@@ -17681,19 +17726,19 @@
         <v>1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA104">
         <v>1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC104">
         <v>1</v>
       </c>
       <c r="AD104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE104">
         <v>0</v>
@@ -17765,7 +17810,7 @@
         <v>1</v>
       </c>
       <c r="BB104">
-        <v>0.6315018314846154</v>
+        <v>0.6746031745833333</v>
       </c>
     </row>
     <row r="105" spans="1:54">
@@ -17845,19 +17890,19 @@
         <v>1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA105">
         <v>1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC105">
         <v>1</v>
       </c>
       <c r="AD105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE105">
         <v>0</v>
@@ -17929,7 +17974,7 @@
         <v>1</v>
       </c>
       <c r="BB105">
-        <v>0.6315018314846154</v>
+        <v>0.6746031745833333</v>
       </c>
     </row>
     <row r="106" spans="1:54">
@@ -18009,19 +18054,19 @@
         <v>1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA106">
         <v>1</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC106">
         <v>1</v>
       </c>
       <c r="AD106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE106">
         <v>0</v>
@@ -18093,7 +18138,7 @@
         <v>1</v>
       </c>
       <c r="BB106">
-        <v>0.6315018314846154</v>
+        <v>0.6746031745833333</v>
       </c>
     </row>
     <row r="107" spans="1:54">
@@ -18173,19 +18218,19 @@
         <v>1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA107">
         <v>1</v>
       </c>
       <c r="AB107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC107">
         <v>1</v>
       </c>
       <c r="AD107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE107">
         <v>0</v>
@@ -18257,7 +18302,7 @@
         <v>1</v>
       </c>
       <c r="BB107">
-        <v>0.6315018314846154</v>
+        <v>0.6746031745833333</v>
       </c>
     </row>
     <row r="108" spans="1:54">
@@ -18337,19 +18382,19 @@
         <v>1</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA108">
         <v>1</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC108">
         <v>1</v>
       </c>
       <c r="AD108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE108">
         <v>0</v>
@@ -18421,7 +18466,7 @@
         <v>1</v>
       </c>
       <c r="BB108">
-        <v>0.6315018314846154</v>
+        <v>0.6746031745833333</v>
       </c>
     </row>
     <row r="109" spans="1:54">
@@ -18501,19 +18546,19 @@
         <v>0</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA109">
         <v>1</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC109">
         <v>1</v>
       </c>
       <c r="AD109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE109">
         <v>0</v>
@@ -18585,7 +18630,7 @@
         <v>1</v>
       </c>
       <c r="BB109">
-        <v>0.5238095237999999</v>
+        <v>0.5912698412583332</v>
       </c>
     </row>
     <row r="110" spans="1:54">
@@ -18665,19 +18710,19 @@
         <v>0</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA110">
         <v>1</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC110">
         <v>1</v>
       </c>
       <c r="AD110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE110">
         <v>0</v>
@@ -18749,7 +18794,7 @@
         <v>1</v>
       </c>
       <c r="BB110">
-        <v>0.5238095237999999</v>
+        <v>0.5912698412583332</v>
       </c>
     </row>
     <row r="111" spans="1:54">
@@ -18829,19 +18874,19 @@
         <v>0</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA111">
         <v>1</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC111">
         <v>1</v>
       </c>
       <c r="AD111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE111">
         <v>0</v>
@@ -18913,7 +18958,7 @@
         <v>1</v>
       </c>
       <c r="BB111">
-        <v>0.5238095237999999</v>
+        <v>0.5912698412583332</v>
       </c>
     </row>
     <row r="112" spans="1:54">
@@ -18993,19 +19038,19 @@
         <v>0</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA112">
         <v>1</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC112">
         <v>1</v>
       </c>
       <c r="AD112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE112">
         <v>0</v>
@@ -19077,7 +19122,7 @@
         <v>1</v>
       </c>
       <c r="BB112">
-        <v>0.5238095237999999</v>
+        <v>0.5912698412583332</v>
       </c>
     </row>
     <row r="113" spans="1:54">
@@ -19157,19 +19202,19 @@
         <v>0</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA113">
         <v>1</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC113">
         <v>1</v>
       </c>
       <c r="AD113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE113">
         <v>0</v>
@@ -19241,7 +19286,7 @@
         <v>1</v>
       </c>
       <c r="BB113">
-        <v>0.5238095237999999</v>
+        <v>0.5912698412583332</v>
       </c>
     </row>
     <row r="114" spans="1:54">
@@ -19321,19 +19366,19 @@
         <v>0</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA114">
         <v>1</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC114">
         <v>1</v>
       </c>
       <c r="AD114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE114">
         <v>0</v>
@@ -19405,7 +19450,7 @@
         <v>1</v>
       </c>
       <c r="BB114">
-        <v>0.5238095237999999</v>
+        <v>0.5912698412583332</v>
       </c>
     </row>
     <row r="115" spans="1:54">
@@ -19485,19 +19530,19 @@
         <v>0</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA115">
         <v>1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC115">
         <v>1</v>
       </c>
       <c r="AD115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE115">
         <v>0</v>
@@ -19569,7 +19614,7 @@
         <v>1</v>
       </c>
       <c r="BB115">
-        <v>0.5238095237999999</v>
+        <v>0.5912698412583332</v>
       </c>
     </row>
     <row r="116" spans="1:54">
@@ -19649,19 +19694,19 @@
         <v>0</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA116">
         <v>1</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC116">
         <v>1</v>
       </c>
       <c r="AD116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE116">
         <v>0</v>
@@ -19733,7 +19778,7 @@
         <v>1</v>
       </c>
       <c r="BB116">
-        <v>0.5238095237999999</v>
+        <v>0.5912698412583332</v>
       </c>
     </row>
     <row r="117" spans="1:54">
@@ -19813,19 +19858,19 @@
         <v>0</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA117">
         <v>1</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC117">
         <v>1</v>
       </c>
       <c r="AD117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE117">
         <v>0</v>
@@ -19897,7 +19942,7 @@
         <v>1</v>
       </c>
       <c r="BB117">
-        <v>0.5238095237999999</v>
+        <v>0.5912698412583332</v>
       </c>
     </row>
     <row r="118" spans="1:54">
@@ -19977,19 +20022,19 @@
         <v>0</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA118">
         <v>1</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC118">
         <v>1</v>
       </c>
       <c r="AD118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE118">
         <v>0</v>
@@ -20061,7 +20106,7 @@
         <v>1</v>
       </c>
       <c r="BB118">
-        <v>0.5238095237999999</v>
+        <v>0.5912698412583332</v>
       </c>
     </row>
     <row r="119" spans="1:54">
@@ -20141,19 +20186,19 @@
         <v>0</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA119">
         <v>1</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC119">
         <v>1</v>
       </c>
       <c r="AD119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE119">
         <v>0</v>
@@ -20225,7 +20270,7 @@
         <v>1</v>
       </c>
       <c r="BB119">
-        <v>0.5238095237999999</v>
+        <v>0.5912698412583332</v>
       </c>
     </row>
     <row r="120" spans="1:54">
@@ -20305,19 +20350,19 @@
         <v>0</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA120">
         <v>1</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC120">
         <v>1</v>
       </c>
       <c r="AD120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE120">
         <v>0</v>
@@ -20389,7 +20434,7 @@
         <v>1</v>
       </c>
       <c r="BB120">
-        <v>0.5238095237999999</v>
+        <v>0.5912698412583332</v>
       </c>
     </row>
     <row r="121" spans="1:54">
@@ -20469,19 +20514,19 @@
         <v>0</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA121">
         <v>1</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC121">
         <v>1</v>
       </c>
       <c r="AD121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE121">
         <v>0</v>
@@ -20553,7 +20598,7 @@
         <v>1</v>
       </c>
       <c r="BB121">
-        <v>0.5238095237999999</v>
+        <v>0.5912698412583332</v>
       </c>
     </row>
     <row r="122" spans="1:54">
@@ -20633,19 +20678,19 @@
         <v>0</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA122">
         <v>1</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC122">
         <v>1</v>
       </c>
       <c r="AD122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE122">
         <v>0</v>
@@ -20717,7 +20762,7 @@
         <v>1</v>
       </c>
       <c r="BB122">
-        <v>0.5238095237999999</v>
+        <v>0.5912698412583332</v>
       </c>
     </row>
     <row r="123" spans="1:54">
@@ -20797,19 +20842,19 @@
         <v>0</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA123">
         <v>1</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC123">
         <v>1</v>
       </c>
       <c r="AD123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE123">
         <v>0</v>
@@ -20881,7 +20926,7 @@
         <v>1</v>
       </c>
       <c r="BB123">
-        <v>0.4597069596923077</v>
+        <v>0.5218253968083333</v>
       </c>
     </row>
     <row r="124" spans="1:54">
@@ -20961,19 +21006,19 @@
         <v>0</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA124">
         <v>1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC124">
         <v>1</v>
       </c>
       <c r="AD124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE124">
         <v>0</v>
@@ -21045,7 +21090,7 @@
         <v>1</v>
       </c>
       <c r="BB124">
-        <v>0.4597069596923077</v>
+        <v>0.5218253968083333</v>
       </c>
     </row>
     <row r="125" spans="1:54">
@@ -21125,19 +21170,19 @@
         <v>0</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA125">
         <v>1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC125">
         <v>1</v>
       </c>
       <c r="AD125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE125">
         <v>0</v>
@@ -21209,7 +21254,7 @@
         <v>1</v>
       </c>
       <c r="BB125">
-        <v>0.4597069596923077</v>
+        <v>0.5218253968083333</v>
       </c>
     </row>
     <row r="126" spans="1:54">
@@ -21289,19 +21334,19 @@
         <v>0</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA126">
         <v>1</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC126">
         <v>1</v>
       </c>
       <c r="AD126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE126">
         <v>0</v>
@@ -21373,7 +21418,7 @@
         <v>1</v>
       </c>
       <c r="BB126">
-        <v>0.4597069596923077</v>
+        <v>0.5218253968083333</v>
       </c>
     </row>
     <row r="127" spans="1:54">
@@ -21453,19 +21498,19 @@
         <v>0</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA127">
         <v>1</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC127">
         <v>1</v>
       </c>
       <c r="AD127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE127">
         <v>0</v>
@@ -21537,7 +21582,7 @@
         <v>1</v>
       </c>
       <c r="BB127">
-        <v>0.4597069596923077</v>
+        <v>0.5218253968083333</v>
       </c>
     </row>
     <row r="128" spans="1:54">
@@ -21617,19 +21662,19 @@
         <v>0</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA128">
         <v>1</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC128">
         <v>1</v>
       </c>
       <c r="AD128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE128">
         <v>0</v>
@@ -21701,7 +21746,7 @@
         <v>1</v>
       </c>
       <c r="BB128">
-        <v>0.4597069596923077</v>
+        <v>0.5218253968083333</v>
       </c>
     </row>
     <row r="129" spans="1:54">
@@ -21781,19 +21826,19 @@
         <v>0</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA129">
         <v>1</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC129">
         <v>1</v>
       </c>
       <c r="AD129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE129">
         <v>0</v>
@@ -21865,7 +21910,7 @@
         <v>1</v>
       </c>
       <c r="BB129">
-        <v>0.4597069596923077</v>
+        <v>0.5218253968083333</v>
       </c>
     </row>
     <row r="130" spans="1:54">
@@ -21945,19 +21990,19 @@
         <v>0</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA130">
         <v>1</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC130">
         <v>1</v>
       </c>
       <c r="AD130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE130">
         <v>0</v>
@@ -22029,7 +22074,7 @@
         <v>1</v>
       </c>
       <c r="BB130">
-        <v>0.4597069596923077</v>
+        <v>0.5218253968083333</v>
       </c>
     </row>
     <row r="131" spans="1:54">
@@ -22109,19 +22154,19 @@
         <v>0</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA131">
         <v>1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC131">
         <v>1</v>
       </c>
       <c r="AD131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE131">
         <v>0</v>
@@ -22193,7 +22238,7 @@
         <v>1</v>
       </c>
       <c r="BB131">
-        <v>0.4597069596923077</v>
+        <v>0.5218253968083333</v>
       </c>
     </row>
     <row r="132" spans="1:54">
@@ -22273,19 +22318,19 @@
         <v>0</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA132">
         <v>1</v>
       </c>
       <c r="AB132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC132">
         <v>1</v>
       </c>
       <c r="AD132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE132">
         <v>0</v>
@@ -22357,7 +22402,7 @@
         <v>1</v>
       </c>
       <c r="BB132">
-        <v>0.4597069596923077</v>
+        <v>0.5218253968083333</v>
       </c>
     </row>
     <row r="133" spans="1:54">
@@ -22437,19 +22482,19 @@
         <v>0</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA133">
         <v>1</v>
       </c>
       <c r="AB133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC133">
         <v>1</v>
       </c>
       <c r="AD133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE133">
         <v>0</v>
@@ -22521,7 +22566,7 @@
         <v>1</v>
       </c>
       <c r="BB133">
-        <v>0.4597069596923077</v>
+        <v>0.5218253968083333</v>
       </c>
     </row>
     <row r="134" spans="1:54">
@@ -22601,19 +22646,19 @@
         <v>0</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA134">
         <v>1</v>
       </c>
       <c r="AB134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC134">
         <v>1</v>
       </c>
       <c r="AD134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE134">
         <v>0</v>
@@ -22685,7 +22730,7 @@
         <v>1</v>
       </c>
       <c r="BB134">
-        <v>0.4597069596923077</v>
+        <v>0.5218253968083333</v>
       </c>
     </row>
     <row r="135" spans="1:54">
@@ -22765,19 +22810,19 @@
         <v>0</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA135">
         <v>1</v>
       </c>
       <c r="AB135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC135">
         <v>1</v>
       </c>
       <c r="AD135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE135">
         <v>0</v>
@@ -22849,7 +22894,7 @@
         <v>1</v>
       </c>
       <c r="BB135">
-        <v>0.4597069596923077</v>
+        <v>0.5218253968083333</v>
       </c>
     </row>
     <row r="136" spans="1:54">
@@ -22929,19 +22974,19 @@
         <v>0</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA136">
         <v>1</v>
       </c>
       <c r="AB136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC136">
         <v>1</v>
       </c>
       <c r="AD136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE136">
         <v>0</v>
@@ -23013,7 +23058,7 @@
         <v>1</v>
       </c>
       <c r="BB136">
-        <v>0.4597069596923077</v>
+        <v>0.5218253968083333</v>
       </c>
     </row>
     <row r="137" spans="1:54">
@@ -23093,19 +23138,19 @@
         <v>0</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA137">
         <v>1</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC137">
         <v>1</v>
       </c>
       <c r="AD137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE137">
         <v>0</v>
@@ -23177,7 +23222,7 @@
         <v>1</v>
       </c>
       <c r="BB137">
-        <v>0.3873626373538462</v>
+        <v>0.4434523809416666</v>
       </c>
     </row>
     <row r="138" spans="1:54">
@@ -23257,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA138">
         <v>1</v>
       </c>
       <c r="AB138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC138">
         <v>1</v>
       </c>
       <c r="AD138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE138">
         <v>0</v>
@@ -23341,7 +23386,7 @@
         <v>1</v>
       </c>
       <c r="BB138">
-        <v>0.3873626373538462</v>
+        <v>0.4434523809416666</v>
       </c>
     </row>
     <row r="139" spans="1:54">
@@ -23421,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA139">
         <v>1</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC139">
         <v>1</v>
       </c>
       <c r="AD139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE139">
         <v>0</v>
@@ -23505,7 +23550,7 @@
         <v>1</v>
       </c>
       <c r="BB139">
-        <v>0.3873626373538462</v>
+        <v>0.4434523809416666</v>
       </c>
     </row>
     <row r="140" spans="1:54">
@@ -23585,19 +23630,19 @@
         <v>0</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA140">
         <v>1</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC140">
         <v>1</v>
       </c>
       <c r="AD140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE140">
         <v>0</v>
@@ -23669,7 +23714,7 @@
         <v>1</v>
       </c>
       <c r="BB140">
-        <v>0.3873626373538462</v>
+        <v>0.4434523809416666</v>
       </c>
     </row>
     <row r="141" spans="1:54">
@@ -23749,19 +23794,19 @@
         <v>0</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA141">
         <v>1</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC141">
         <v>1</v>
       </c>
       <c r="AD141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE141">
         <v>0</v>
@@ -23833,7 +23878,7 @@
         <v>1</v>
       </c>
       <c r="BB141">
-        <v>0.3873626373538462</v>
+        <v>0.4434523809416666</v>
       </c>
     </row>
     <row r="142" spans="1:54">
@@ -23913,19 +23958,19 @@
         <v>0</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA142">
         <v>1</v>
       </c>
       <c r="AB142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC142">
         <v>1</v>
       </c>
       <c r="AD142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE142">
         <v>0</v>
@@ -23997,7 +24042,7 @@
         <v>1</v>
       </c>
       <c r="BB142">
-        <v>0.3873626373538462</v>
+        <v>0.4434523809416666</v>
       </c>
     </row>
     <row r="143" spans="1:54">
@@ -24077,19 +24122,19 @@
         <v>0</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA143">
         <v>1</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC143">
         <v>1</v>
       </c>
       <c r="AD143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE143">
         <v>0</v>
@@ -24161,7 +24206,7 @@
         <v>1</v>
       </c>
       <c r="BB143">
-        <v>0.3873626373538462</v>
+        <v>0.4434523809416666</v>
       </c>
     </row>
     <row r="144" spans="1:54">
@@ -24325,7 +24370,7 @@
         <v>1</v>
       </c>
       <c r="BB144">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="145" spans="1:54">
@@ -24489,7 +24534,7 @@
         <v>1</v>
       </c>
       <c r="BB145">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="146" spans="1:54">
@@ -24653,7 +24698,7 @@
         <v>1</v>
       </c>
       <c r="BB146">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="147" spans="1:54">
@@ -24817,7 +24862,7 @@
         <v>1</v>
       </c>
       <c r="BB147">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="148" spans="1:54">
@@ -24981,7 +25026,7 @@
         <v>1</v>
       </c>
       <c r="BB148">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="149" spans="1:54">
@@ -25145,7 +25190,7 @@
         <v>1</v>
       </c>
       <c r="BB149">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="150" spans="1:54">
@@ -25309,7 +25354,7 @@
         <v>1</v>
       </c>
       <c r="BB150">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="151" spans="1:54">
@@ -25473,7 +25518,7 @@
         <v>1</v>
       </c>
       <c r="BB151">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="152" spans="1:54">
@@ -25637,7 +25682,7 @@
         <v>1</v>
       </c>
       <c r="BB152">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="153" spans="1:54">
@@ -25801,7 +25846,7 @@
         <v>1</v>
       </c>
       <c r="BB153">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="154" spans="1:54">
@@ -25965,7 +26010,7 @@
         <v>1</v>
       </c>
       <c r="BB154">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="155" spans="1:54">
@@ -26129,7 +26174,7 @@
         <v>1</v>
       </c>
       <c r="BB155">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="156" spans="1:54">
@@ -26293,7 +26338,7 @@
         <v>1</v>
       </c>
       <c r="BB156">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="157" spans="1:54">
@@ -26457,7 +26502,7 @@
         <v>1</v>
       </c>
       <c r="BB157">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="158" spans="1:54">
@@ -26621,7 +26666,7 @@
         <v>1</v>
       </c>
       <c r="BB158">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="159" spans="1:54">
@@ -26785,7 +26830,7 @@
         <v>1</v>
       </c>
       <c r="BB159">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="160" spans="1:54">
@@ -26949,7 +26994,7 @@
         <v>1</v>
       </c>
       <c r="BB160">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="161" spans="1:54">
@@ -27113,7 +27158,7 @@
         <v>1</v>
       </c>
       <c r="BB161">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="162" spans="1:54">
@@ -27277,7 +27322,7 @@
         <v>1</v>
       </c>
       <c r="BB162">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="163" spans="1:54">
@@ -27441,7 +27486,7 @@
         <v>1</v>
       </c>
       <c r="BB163">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="164" spans="1:54">
@@ -27605,7 +27650,7 @@
         <v>1</v>
       </c>
       <c r="BB164">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="165" spans="1:54">
@@ -27769,7 +27814,7 @@
         <v>1</v>
       </c>
       <c r="BB165">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="166" spans="1:54">
@@ -27933,7 +27978,7 @@
         <v>1</v>
       </c>
       <c r="BB166">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="167" spans="1:54">
@@ -28097,7 +28142,7 @@
         <v>1</v>
       </c>
       <c r="BB167">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="168" spans="1:54">
@@ -28261,7 +28306,7 @@
         <v>1</v>
       </c>
       <c r="BB168">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="169" spans="1:54">
@@ -28425,7 +28470,7 @@
         <v>1</v>
       </c>
       <c r="BB169">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="170" spans="1:54">
@@ -28589,7 +28634,7 @@
         <v>1</v>
       </c>
       <c r="BB170">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="171" spans="1:54">
@@ -28753,7 +28798,7 @@
         <v>1</v>
       </c>
       <c r="BB171">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="172" spans="1:54">
@@ -28917,7 +28962,7 @@
         <v>1</v>
       </c>
       <c r="BB172">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="173" spans="1:54">
@@ -29081,7 +29126,7 @@
         <v>1</v>
       </c>
       <c r="BB173">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="174" spans="1:54">
@@ -29245,7 +29290,7 @@
         <v>1</v>
       </c>
       <c r="BB174">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="175" spans="1:54">
@@ -29409,7 +29454,7 @@
         <v>1</v>
       </c>
       <c r="BB175">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="176" spans="1:54">
@@ -29573,7 +29618,7 @@
         <v>1</v>
       </c>
       <c r="BB176">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="177" spans="1:54">
@@ -29737,7 +29782,7 @@
         <v>1</v>
       </c>
       <c r="BB177">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="178" spans="1:54">
@@ -29901,7 +29946,7 @@
         <v>1</v>
       </c>
       <c r="BB178">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="179" spans="1:54">
@@ -30065,7 +30110,7 @@
         <v>1</v>
       </c>
       <c r="BB179">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="180" spans="1:54">
@@ -30229,7 +30274,7 @@
         <v>1</v>
       </c>
       <c r="BB180">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="181" spans="1:54">
@@ -30393,7 +30438,7 @@
         <v>1</v>
       </c>
       <c r="BB181">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="182" spans="1:54">
@@ -30557,7 +30602,7 @@
         <v>1</v>
       </c>
       <c r="BB182">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="183" spans="1:54">
@@ -30721,7 +30766,7 @@
         <v>1</v>
       </c>
       <c r="BB183">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="184" spans="1:54">
@@ -30885,7 +30930,7 @@
         <v>1</v>
       </c>
       <c r="BB184">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="185" spans="1:54">
@@ -31049,7 +31094,7 @@
         <v>1</v>
       </c>
       <c r="BB185">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="186" spans="1:54">
@@ -31213,7 +31258,7 @@
         <v>1</v>
       </c>
       <c r="BB186">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="187" spans="1:54">
@@ -31377,7 +31422,7 @@
         <v>1</v>
       </c>
       <c r="BB187">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="188" spans="1:54">
@@ -31541,7 +31586,7 @@
         <v>1</v>
       </c>
       <c r="BB188">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="189" spans="1:54">
@@ -31705,7 +31750,7 @@
         <v>1</v>
       </c>
       <c r="BB189">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="190" spans="1:54">
@@ -31869,7 +31914,7 @@
         <v>1</v>
       </c>
       <c r="BB190">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="191" spans="1:54">
@@ -32033,7 +32078,7 @@
         <v>1</v>
       </c>
       <c r="BB191">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="192" spans="1:54">
@@ -32197,7 +32242,7 @@
         <v>1</v>
       </c>
       <c r="BB192">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="193" spans="1:54">
@@ -32361,7 +32406,7 @@
         <v>1</v>
       </c>
       <c r="BB193">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="194" spans="1:54">
@@ -32525,7 +32570,7 @@
         <v>1</v>
       </c>
       <c r="BB194">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="195" spans="1:54">
@@ -32689,7 +32734,7 @@
         <v>1</v>
       </c>
       <c r="BB195">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="196" spans="1:54">
@@ -32853,7 +32898,7 @@
         <v>1</v>
       </c>
       <c r="BB196">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="197" spans="1:54">
@@ -33017,7 +33062,7 @@
         <v>1</v>
       </c>
       <c r="BB197">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="198" spans="1:54">
@@ -33181,7 +33226,7 @@
         <v>1</v>
       </c>
       <c r="BB198">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="199" spans="1:54">
@@ -33345,7 +33390,7 @@
         <v>1</v>
       </c>
       <c r="BB199">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="200" spans="1:54">
@@ -33509,7 +33554,7 @@
         <v>1</v>
       </c>
       <c r="BB200">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="201" spans="1:54">
@@ -33673,7 +33718,7 @@
         <v>1</v>
       </c>
       <c r="BB201">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="202" spans="1:54">
@@ -33837,7 +33882,7 @@
         <v>1</v>
       </c>
       <c r="BB202">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="203" spans="1:54">
@@ -34001,7 +34046,7 @@
         <v>1</v>
       </c>
       <c r="BB203">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="204" spans="1:54">
@@ -34165,7 +34210,7 @@
         <v>1</v>
       </c>
       <c r="BB204">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="205" spans="1:54">
@@ -34329,7 +34374,7 @@
         <v>1</v>
       </c>
       <c r="BB205">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="206" spans="1:54">
@@ -34493,7 +34538,7 @@
         <v>1</v>
       </c>
       <c r="BB206">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="207" spans="1:54">
@@ -34657,7 +34702,7 @@
         <v>1</v>
       </c>
       <c r="BB207">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="208" spans="1:54">
@@ -34821,7 +34866,7 @@
         <v>1</v>
       </c>
       <c r="BB208">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="209" spans="1:54">
@@ -34985,7 +35030,7 @@
         <v>1</v>
       </c>
       <c r="BB209">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="210" spans="1:54">
@@ -35149,7 +35194,7 @@
         <v>1</v>
       </c>
       <c r="BB210">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="211" spans="1:54">
@@ -35313,7 +35358,7 @@
         <v>1</v>
       </c>
       <c r="BB211">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="212" spans="1:54">
@@ -35477,7 +35522,7 @@
         <v>1</v>
       </c>
       <c r="BB212">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="213" spans="1:54">
@@ -35641,7 +35686,7 @@
         <v>1</v>
       </c>
       <c r="BB213">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="214" spans="1:54">
@@ -35805,7 +35850,7 @@
         <v>1</v>
       </c>
       <c r="BB214">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="215" spans="1:54">
@@ -35969,7 +36014,7 @@
         <v>1</v>
       </c>
       <c r="BB215">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="216" spans="1:54">
@@ -36133,7 +36178,7 @@
         <v>1</v>
       </c>
       <c r="BB216">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="217" spans="1:54">
@@ -36297,7 +36342,7 @@
         <v>1</v>
       </c>
       <c r="BB217">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="218" spans="1:54">
@@ -36461,7 +36506,7 @@
         <v>1</v>
       </c>
       <c r="BB218">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="219" spans="1:54">
@@ -36625,7 +36670,7 @@
         <v>1</v>
       </c>
       <c r="BB219">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="220" spans="1:54">
@@ -36789,7 +36834,7 @@
         <v>1</v>
       </c>
       <c r="BB220">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
       </c>
     </row>
     <row r="221" spans="1:54">
@@ -36953,7 +36998,1975 @@
         <v>1</v>
       </c>
       <c r="BB221">
-        <v>0.3369963369923076</v>
+        <v>0.3650793650749999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:54">
+      <c r="A222" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>0</v>
+      </c>
+      <c r="AG222">
+        <v>0</v>
+      </c>
+      <c r="AH222">
+        <v>0</v>
+      </c>
+      <c r="AI222">
+        <v>1</v>
+      </c>
+      <c r="AJ222">
+        <v>1</v>
+      </c>
+      <c r="AK222">
+        <v>1</v>
+      </c>
+      <c r="AL222">
+        <v>1</v>
+      </c>
+      <c r="AM222">
+        <v>1</v>
+      </c>
+      <c r="AN222">
+        <v>1</v>
+      </c>
+      <c r="AO222">
+        <v>0</v>
+      </c>
+      <c r="AP222">
+        <v>0</v>
+      </c>
+      <c r="AQ222">
+        <v>0</v>
+      </c>
+      <c r="AR222">
+        <v>0</v>
+      </c>
+      <c r="AS222">
+        <v>0</v>
+      </c>
+      <c r="AT222">
+        <v>0</v>
+      </c>
+      <c r="AU222">
+        <v>0</v>
+      </c>
+      <c r="AV222">
+        <v>1</v>
+      </c>
+      <c r="AW222">
+        <v>0</v>
+      </c>
+      <c r="AX222">
+        <v>0</v>
+      </c>
+      <c r="AY222">
+        <v>1</v>
+      </c>
+      <c r="AZ222">
+        <v>1</v>
+      </c>
+      <c r="BA222">
+        <v>1</v>
+      </c>
+      <c r="BB222">
+        <v>0.3650793650749999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:54">
+      <c r="A223" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
+      <c r="AF223">
+        <v>0</v>
+      </c>
+      <c r="AG223">
+        <v>0</v>
+      </c>
+      <c r="AH223">
+        <v>0</v>
+      </c>
+      <c r="AI223">
+        <v>1</v>
+      </c>
+      <c r="AJ223">
+        <v>1</v>
+      </c>
+      <c r="AK223">
+        <v>1</v>
+      </c>
+      <c r="AL223">
+        <v>1</v>
+      </c>
+      <c r="AM223">
+        <v>1</v>
+      </c>
+      <c r="AN223">
+        <v>1</v>
+      </c>
+      <c r="AO223">
+        <v>0</v>
+      </c>
+      <c r="AP223">
+        <v>0</v>
+      </c>
+      <c r="AQ223">
+        <v>0</v>
+      </c>
+      <c r="AR223">
+        <v>0</v>
+      </c>
+      <c r="AS223">
+        <v>0</v>
+      </c>
+      <c r="AT223">
+        <v>0</v>
+      </c>
+      <c r="AU223">
+        <v>0</v>
+      </c>
+      <c r="AV223">
+        <v>1</v>
+      </c>
+      <c r="AW223">
+        <v>0</v>
+      </c>
+      <c r="AX223">
+        <v>0</v>
+      </c>
+      <c r="AY223">
+        <v>1</v>
+      </c>
+      <c r="AZ223">
+        <v>1</v>
+      </c>
+      <c r="BA223">
+        <v>1</v>
+      </c>
+      <c r="BB223">
+        <v>0.3650793650749999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:54">
+      <c r="A224" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
+      <c r="AF224">
+        <v>0</v>
+      </c>
+      <c r="AG224">
+        <v>0</v>
+      </c>
+      <c r="AH224">
+        <v>0</v>
+      </c>
+      <c r="AI224">
+        <v>1</v>
+      </c>
+      <c r="AJ224">
+        <v>1</v>
+      </c>
+      <c r="AK224">
+        <v>1</v>
+      </c>
+      <c r="AL224">
+        <v>1</v>
+      </c>
+      <c r="AM224">
+        <v>1</v>
+      </c>
+      <c r="AN224">
+        <v>1</v>
+      </c>
+      <c r="AO224">
+        <v>0</v>
+      </c>
+      <c r="AP224">
+        <v>0</v>
+      </c>
+      <c r="AQ224">
+        <v>0</v>
+      </c>
+      <c r="AR224">
+        <v>0</v>
+      </c>
+      <c r="AS224">
+        <v>0</v>
+      </c>
+      <c r="AT224">
+        <v>0</v>
+      </c>
+      <c r="AU224">
+        <v>0</v>
+      </c>
+      <c r="AV224">
+        <v>1</v>
+      </c>
+      <c r="AW224">
+        <v>0</v>
+      </c>
+      <c r="AX224">
+        <v>0</v>
+      </c>
+      <c r="AY224">
+        <v>1</v>
+      </c>
+      <c r="AZ224">
+        <v>1</v>
+      </c>
+      <c r="BA224">
+        <v>1</v>
+      </c>
+      <c r="BB224">
+        <v>0.3650793650749999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:54">
+      <c r="A225" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
+      <c r="AF225">
+        <v>0</v>
+      </c>
+      <c r="AG225">
+        <v>0</v>
+      </c>
+      <c r="AH225">
+        <v>0</v>
+      </c>
+      <c r="AI225">
+        <v>1</v>
+      </c>
+      <c r="AJ225">
+        <v>1</v>
+      </c>
+      <c r="AK225">
+        <v>1</v>
+      </c>
+      <c r="AL225">
+        <v>1</v>
+      </c>
+      <c r="AM225">
+        <v>1</v>
+      </c>
+      <c r="AN225">
+        <v>1</v>
+      </c>
+      <c r="AO225">
+        <v>0</v>
+      </c>
+      <c r="AP225">
+        <v>0</v>
+      </c>
+      <c r="AQ225">
+        <v>0</v>
+      </c>
+      <c r="AR225">
+        <v>0</v>
+      </c>
+      <c r="AS225">
+        <v>0</v>
+      </c>
+      <c r="AT225">
+        <v>0</v>
+      </c>
+      <c r="AU225">
+        <v>0</v>
+      </c>
+      <c r="AV225">
+        <v>1</v>
+      </c>
+      <c r="AW225">
+        <v>0</v>
+      </c>
+      <c r="AX225">
+        <v>0</v>
+      </c>
+      <c r="AY225">
+        <v>1</v>
+      </c>
+      <c r="AZ225">
+        <v>1</v>
+      </c>
+      <c r="BA225">
+        <v>1</v>
+      </c>
+      <c r="BB225">
+        <v>0.3650793650749999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:54">
+      <c r="A226" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>0</v>
+      </c>
+      <c r="AF226">
+        <v>0</v>
+      </c>
+      <c r="AG226">
+        <v>0</v>
+      </c>
+      <c r="AH226">
+        <v>0</v>
+      </c>
+      <c r="AI226">
+        <v>1</v>
+      </c>
+      <c r="AJ226">
+        <v>1</v>
+      </c>
+      <c r="AK226">
+        <v>1</v>
+      </c>
+      <c r="AL226">
+        <v>1</v>
+      </c>
+      <c r="AM226">
+        <v>1</v>
+      </c>
+      <c r="AN226">
+        <v>1</v>
+      </c>
+      <c r="AO226">
+        <v>0</v>
+      </c>
+      <c r="AP226">
+        <v>0</v>
+      </c>
+      <c r="AQ226">
+        <v>0</v>
+      </c>
+      <c r="AR226">
+        <v>0</v>
+      </c>
+      <c r="AS226">
+        <v>0</v>
+      </c>
+      <c r="AT226">
+        <v>0</v>
+      </c>
+      <c r="AU226">
+        <v>0</v>
+      </c>
+      <c r="AV226">
+        <v>1</v>
+      </c>
+      <c r="AW226">
+        <v>0</v>
+      </c>
+      <c r="AX226">
+        <v>0</v>
+      </c>
+      <c r="AY226">
+        <v>1</v>
+      </c>
+      <c r="AZ226">
+        <v>1</v>
+      </c>
+      <c r="BA226">
+        <v>1</v>
+      </c>
+      <c r="BB226">
+        <v>0.3650793650749999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:54">
+      <c r="A227" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>0</v>
+      </c>
+      <c r="AF227">
+        <v>0</v>
+      </c>
+      <c r="AG227">
+        <v>0</v>
+      </c>
+      <c r="AH227">
+        <v>0</v>
+      </c>
+      <c r="AI227">
+        <v>1</v>
+      </c>
+      <c r="AJ227">
+        <v>1</v>
+      </c>
+      <c r="AK227">
+        <v>1</v>
+      </c>
+      <c r="AL227">
+        <v>1</v>
+      </c>
+      <c r="AM227">
+        <v>1</v>
+      </c>
+      <c r="AN227">
+        <v>1</v>
+      </c>
+      <c r="AO227">
+        <v>0</v>
+      </c>
+      <c r="AP227">
+        <v>0</v>
+      </c>
+      <c r="AQ227">
+        <v>0</v>
+      </c>
+      <c r="AR227">
+        <v>0</v>
+      </c>
+      <c r="AS227">
+        <v>0</v>
+      </c>
+      <c r="AT227">
+        <v>0</v>
+      </c>
+      <c r="AU227">
+        <v>0</v>
+      </c>
+      <c r="AV227">
+        <v>1</v>
+      </c>
+      <c r="AW227">
+        <v>0</v>
+      </c>
+      <c r="AX227">
+        <v>0</v>
+      </c>
+      <c r="AY227">
+        <v>1</v>
+      </c>
+      <c r="AZ227">
+        <v>1</v>
+      </c>
+      <c r="BA227">
+        <v>1</v>
+      </c>
+      <c r="BB227">
+        <v>0.3650793650749999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:54">
+      <c r="A228" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>0</v>
+      </c>
+      <c r="AG228">
+        <v>0</v>
+      </c>
+      <c r="AH228">
+        <v>0</v>
+      </c>
+      <c r="AI228">
+        <v>1</v>
+      </c>
+      <c r="AJ228">
+        <v>1</v>
+      </c>
+      <c r="AK228">
+        <v>1</v>
+      </c>
+      <c r="AL228">
+        <v>1</v>
+      </c>
+      <c r="AM228">
+        <v>1</v>
+      </c>
+      <c r="AN228">
+        <v>1</v>
+      </c>
+      <c r="AO228">
+        <v>0</v>
+      </c>
+      <c r="AP228">
+        <v>0</v>
+      </c>
+      <c r="AQ228">
+        <v>0</v>
+      </c>
+      <c r="AR228">
+        <v>0</v>
+      </c>
+      <c r="AS228">
+        <v>0</v>
+      </c>
+      <c r="AT228">
+        <v>0</v>
+      </c>
+      <c r="AU228">
+        <v>0</v>
+      </c>
+      <c r="AV228">
+        <v>1</v>
+      </c>
+      <c r="AW228">
+        <v>0</v>
+      </c>
+      <c r="AX228">
+        <v>0</v>
+      </c>
+      <c r="AY228">
+        <v>1</v>
+      </c>
+      <c r="AZ228">
+        <v>1</v>
+      </c>
+      <c r="BA228">
+        <v>1</v>
+      </c>
+      <c r="BB228">
+        <v>0.3650793650749999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:54">
+      <c r="A229" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>0</v>
+      </c>
+      <c r="AG229">
+        <v>0</v>
+      </c>
+      <c r="AH229">
+        <v>0</v>
+      </c>
+      <c r="AI229">
+        <v>1</v>
+      </c>
+      <c r="AJ229">
+        <v>1</v>
+      </c>
+      <c r="AK229">
+        <v>1</v>
+      </c>
+      <c r="AL229">
+        <v>1</v>
+      </c>
+      <c r="AM229">
+        <v>1</v>
+      </c>
+      <c r="AN229">
+        <v>1</v>
+      </c>
+      <c r="AO229">
+        <v>0</v>
+      </c>
+      <c r="AP229">
+        <v>0</v>
+      </c>
+      <c r="AQ229">
+        <v>0</v>
+      </c>
+      <c r="AR229">
+        <v>0</v>
+      </c>
+      <c r="AS229">
+        <v>0</v>
+      </c>
+      <c r="AT229">
+        <v>0</v>
+      </c>
+      <c r="AU229">
+        <v>0</v>
+      </c>
+      <c r="AV229">
+        <v>1</v>
+      </c>
+      <c r="AW229">
+        <v>0</v>
+      </c>
+      <c r="AX229">
+        <v>0</v>
+      </c>
+      <c r="AY229">
+        <v>1</v>
+      </c>
+      <c r="AZ229">
+        <v>1</v>
+      </c>
+      <c r="BA229">
+        <v>1</v>
+      </c>
+      <c r="BB229">
+        <v>0.3650793650749999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:54">
+      <c r="A230" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>0</v>
+      </c>
+      <c r="AH230">
+        <v>0</v>
+      </c>
+      <c r="AI230">
+        <v>1</v>
+      </c>
+      <c r="AJ230">
+        <v>1</v>
+      </c>
+      <c r="AK230">
+        <v>1</v>
+      </c>
+      <c r="AL230">
+        <v>1</v>
+      </c>
+      <c r="AM230">
+        <v>1</v>
+      </c>
+      <c r="AN230">
+        <v>1</v>
+      </c>
+      <c r="AO230">
+        <v>0</v>
+      </c>
+      <c r="AP230">
+        <v>0</v>
+      </c>
+      <c r="AQ230">
+        <v>0</v>
+      </c>
+      <c r="AR230">
+        <v>0</v>
+      </c>
+      <c r="AS230">
+        <v>0</v>
+      </c>
+      <c r="AT230">
+        <v>0</v>
+      </c>
+      <c r="AU230">
+        <v>0</v>
+      </c>
+      <c r="AV230">
+        <v>1</v>
+      </c>
+      <c r="AW230">
+        <v>0</v>
+      </c>
+      <c r="AX230">
+        <v>0</v>
+      </c>
+      <c r="AY230">
+        <v>1</v>
+      </c>
+      <c r="AZ230">
+        <v>1</v>
+      </c>
+      <c r="BA230">
+        <v>1</v>
+      </c>
+      <c r="BB230">
+        <v>0.3650793650749999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:54">
+      <c r="A231" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>0</v>
+      </c>
+      <c r="AG231">
+        <v>0</v>
+      </c>
+      <c r="AH231">
+        <v>0</v>
+      </c>
+      <c r="AI231">
+        <v>1</v>
+      </c>
+      <c r="AJ231">
+        <v>1</v>
+      </c>
+      <c r="AK231">
+        <v>1</v>
+      </c>
+      <c r="AL231">
+        <v>1</v>
+      </c>
+      <c r="AM231">
+        <v>1</v>
+      </c>
+      <c r="AN231">
+        <v>1</v>
+      </c>
+      <c r="AO231">
+        <v>0</v>
+      </c>
+      <c r="AP231">
+        <v>0</v>
+      </c>
+      <c r="AQ231">
+        <v>0</v>
+      </c>
+      <c r="AR231">
+        <v>0</v>
+      </c>
+      <c r="AS231">
+        <v>0</v>
+      </c>
+      <c r="AT231">
+        <v>0</v>
+      </c>
+      <c r="AU231">
+        <v>0</v>
+      </c>
+      <c r="AV231">
+        <v>1</v>
+      </c>
+      <c r="AW231">
+        <v>0</v>
+      </c>
+      <c r="AX231">
+        <v>0</v>
+      </c>
+      <c r="AY231">
+        <v>1</v>
+      </c>
+      <c r="AZ231">
+        <v>1</v>
+      </c>
+      <c r="BA231">
+        <v>1</v>
+      </c>
+      <c r="BB231">
+        <v>0.3650793650749999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:54">
+      <c r="A232" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0</v>
+      </c>
+      <c r="AG232">
+        <v>0</v>
+      </c>
+      <c r="AH232">
+        <v>0</v>
+      </c>
+      <c r="AI232">
+        <v>1</v>
+      </c>
+      <c r="AJ232">
+        <v>1</v>
+      </c>
+      <c r="AK232">
+        <v>1</v>
+      </c>
+      <c r="AL232">
+        <v>1</v>
+      </c>
+      <c r="AM232">
+        <v>1</v>
+      </c>
+      <c r="AN232">
+        <v>1</v>
+      </c>
+      <c r="AO232">
+        <v>0</v>
+      </c>
+      <c r="AP232">
+        <v>0</v>
+      </c>
+      <c r="AQ232">
+        <v>0</v>
+      </c>
+      <c r="AR232">
+        <v>0</v>
+      </c>
+      <c r="AS232">
+        <v>0</v>
+      </c>
+      <c r="AT232">
+        <v>0</v>
+      </c>
+      <c r="AU232">
+        <v>0</v>
+      </c>
+      <c r="AV232">
+        <v>1</v>
+      </c>
+      <c r="AW232">
+        <v>0</v>
+      </c>
+      <c r="AX232">
+        <v>0</v>
+      </c>
+      <c r="AY232">
+        <v>1</v>
+      </c>
+      <c r="AZ232">
+        <v>1</v>
+      </c>
+      <c r="BA232">
+        <v>1</v>
+      </c>
+      <c r="BB232">
+        <v>0.3650793650749999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:54">
+      <c r="A233" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <v>0</v>
+      </c>
+      <c r="AG233">
+        <v>0</v>
+      </c>
+      <c r="AH233">
+        <v>0</v>
+      </c>
+      <c r="AI233">
+        <v>1</v>
+      </c>
+      <c r="AJ233">
+        <v>1</v>
+      </c>
+      <c r="AK233">
+        <v>1</v>
+      </c>
+      <c r="AL233">
+        <v>1</v>
+      </c>
+      <c r="AM233">
+        <v>1</v>
+      </c>
+      <c r="AN233">
+        <v>1</v>
+      </c>
+      <c r="AO233">
+        <v>0</v>
+      </c>
+      <c r="AP233">
+        <v>0</v>
+      </c>
+      <c r="AQ233">
+        <v>0</v>
+      </c>
+      <c r="AR233">
+        <v>0</v>
+      </c>
+      <c r="AS233">
+        <v>0</v>
+      </c>
+      <c r="AT233">
+        <v>0</v>
+      </c>
+      <c r="AU233">
+        <v>0</v>
+      </c>
+      <c r="AV233">
+        <v>1</v>
+      </c>
+      <c r="AW233">
+        <v>0</v>
+      </c>
+      <c r="AX233">
+        <v>0</v>
+      </c>
+      <c r="AY233">
+        <v>1</v>
+      </c>
+      <c r="AZ233">
+        <v>1</v>
+      </c>
+      <c r="BA233">
+        <v>1</v>
+      </c>
+      <c r="BB233">
+        <v>0.3650793650749999</v>
       </c>
     </row>
   </sheetData>
@@ -37317,6 +39330,9 @@
       <c r="B26" t="s">
         <v>45</v>
       </c>
+      <c r="C26" s="2">
+        <v>43914</v>
+      </c>
       <c r="D26" s="2">
         <v>44025</v>
       </c>
@@ -37342,6 +39358,9 @@
       <c r="B28" t="s">
         <v>45</v>
       </c>
+      <c r="C28" s="2">
+        <v>43914</v>
+      </c>
       <c r="D28" s="2">
         <v>44025</v>
       </c>
@@ -37366,6 +39385,9 @@
       </c>
       <c r="B30" t="s">
         <v>45</v>
+      </c>
+      <c r="C30" s="2">
+        <v>43905</v>
       </c>
       <c r="D30" s="2">
         <v>44025</v>
